--- a/app/src/main/assets/fruit_des.xlsx
+++ b/app/src/main/assets/fruit_des.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd894d1be485d772/Inti/Degree/Sem 7/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenhao\GitHub\ObjectOwl\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048BE815A5E505ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10C6953F-C495-4EE6-B18E-0CC9ADCB5A05}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FA87D3-DD2C-453E-ADEC-E5E71E821CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -61,86 +61,178 @@
   </si>
   <si>
     <t>Pear</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Dragon Fruit</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Durian</t>
+  </si>
+  <si>
+    <t>Coconut</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
   </si>
   <si>
     <t>Habitat: Apples grow on trees in orchards and gardens in temperate climates around the world, includi----ng North America, Europe, and Asia.
 Description: Apples are round, crisp fruits that come in red, green, and yellow varieties. They have a sweet, juicy flesh inside.
 Fun Fact for Kids: Did you know there are over 7,500 different types of apples in the world? That’s enough to eat a new kind of apple every day for 20 years!
 Taste: Apples can be sweet, tart, or a mix of both, depending on the variety.
-Nutritional Value: Apples are packed with fiber and vitamin C, making them a great snack for staying healthy.
-Fun Fact: Apples float in water because they are made up of 25% air!</t>
+Nutritional Value: Apples are packed with fiber and vitamin C, making them a great snack for staying healthy.</t>
   </si>
   <si>
     <t>Habitat: Bananas are grown in tropical regions like Africa, Central America, and Southeast Asia, where it’s hot and humid.
 Description: Bananas are long, curved fruits with a soft, sweet inside and a bright yellow peel.
 Fun Fact for Kids: Monkeys love bananas! But did you know humans eat more bananas than monkeys do?
 Taste: Bananas are sweet and creamy when ripe, but a little starchy when they’re green.
-Nutritional Value: Bananas are an excellent source of potassium, which helps keep your muscles strong.
-Fun Fact: Bananas are technically berries!</t>
+Nutritional Value: Bananas are an excellent source of potassium, which helps keep your muscles strong.</t>
   </si>
   <si>
     <t>Habitat: Oranges grow on trees in warm places like Florida, Spain, and Brazil.
 Description: Oranges are round citrus fruits with a bright orange peel and juicy, segmented insides.
 Fun Fact for Kids: Oranges are the world’s most popular fruit, and about 85% of all oranges are made into juice!
 Taste: Oranges are sweet and tangy, perfect for a refreshing snack.
-Nutritional Value: Oranges are loaded with vitamin C, which helps keep your immune system strong.
-Fun Fact: The color "orange" is named after the fruit, not the other way around!</t>
+Nutritional Value: Oranges are loaded with vitamin C, which helps keep your immune system strong.</t>
   </si>
   <si>
     <t>Habitat: Grapes grow in bunches on vines, often in sunny vineyards in places like Italy, California, and South America.
 Description: Grapes are small, round fruits that can be green, red, or purple. They’re juicy and sweet!
 Fun Fact for Kids: It takes about 2.5 pounds of grapes to make a bottle of wine, but you can enjoy them fresh, as raisins, or even frozen!
 Taste: Grapes can be sweet or slightly tart, depending on the type.
-Nutritional Value: Grapes are full of vitamins like C and K, and are also rich in antioxidants.
-Fun Fact: The first seedless grapes were discovered over 2,000 years ago!</t>
+Nutritional Value: Grapes are full of vitamins like C and K, and are also rich in antioxidants.</t>
   </si>
   <si>
     <t>Habitat: Strawberries grow on low plants in gardens and farms in temperate climates like North America, Europe, and Asia.
 Description: Strawberries are bright red, heart-shaped fruits with tiny seeds on the outside.
 Fun Fact for Kids: Strawberries aren’t really berries! Unlike true berries, their seeds are on the outside.
 Taste: Strawberries are sweet with a hint of tartness, and they’re super juicy.
-Nutritional Value: Strawberries are packed with vitamin C and antioxidants that help keep you healthy.
-Fun Fact: There are about 200 tiny seeds on every strawberry!</t>
+Nutritional Value: Strawberries are packed with vitamin C and antioxidants that help keep you healthy.</t>
   </si>
   <si>
     <t>Habitat: Blueberries grow on bushes in cool, temperate regions, especially in North America.
 Description: Blueberries are small, round, and dark blue. They grow in clusters on bushes.
 Fun Fact for Kids: Blueberries were once called "star berries" by Native Americans because the blossom end of the berry looks like a five-pointed star.
 Taste: Blueberries are sweet and slightly tart, especially when fully ripe.
-Nutritional Value: Blueberries are full of antioxidants and vitamins, making them great for brain health.
-Fun Fact: Eating blueberries can turn your tongue blue!</t>
+Nutritional Value: Blueberries are full of antioxidants and vitamins, making them great for brain health.</t>
   </si>
   <si>
     <t>Habitat: Mangoes grow in tropical regions like India, Southeast Asia, and Central America, where it’s hot and sunny.
 Description: Mangoes are oval-shaped with smooth skin that can be green, yellow, orange, or red.
 Fun Fact for Kids: In some places, mangoes are called the "king of fruits" because they’re so popular!
 Taste: Mangoes are sweet and juicy, with a rich tropical flavor.
-Nutritional Value: Mangoes are rich in vitamins A and C, which are good for your skin and eyes.
-Fun Fact: Mangoes are related to cashews and pistachios!</t>
+Nutritional Value: Mangoes are rich in vitamins A and C, which are good for your skin and eyes.</t>
   </si>
   <si>
     <t>Habitat: Pineapples grow in tropical climates like Hawaii, Southeast Asia, and parts of South America.
 Description: Pineapples are spiky on the outside with juicy yellow flesh on the inside. They have a crown of leaves at the top.
 Fun Fact for Kids: Pineapples don’t grow on trees; they grow from the ground! Each plant produces only one pineapple at a time.
 Taste: Pineapples are sweet and slightly tangy, with a refreshing flavor.
-Nutritional Value: Pineapples are full of vitamin C and bromelain, which helps with digestion.
-Fun Fact: It takes about 18 months for a pineapple to grow and ripen!</t>
+Nutritional Value: Pineapples are full of vitamin C and bromelain, which helps with digestion.</t>
   </si>
   <si>
     <t>Habitat: Watermelons grow in warm places like Africa, the Mediterranean, and the southern United States.
 Description: Watermelons are large fruits with thick green skin and juicy red or pink flesh filled with seeds.
 Fun Fact for Kids: Watermelons are 92% water, making them one of the best fruits to eat on a hot summer day!
 Taste: Watermelons are sweet, juicy, and refreshing, perfect for staying cool.
-Nutritional Value: Watermelons are rich in vitamins A and C and are great for hydration.
-Fun Fact: The largest watermelon ever grown weighed over 350 pounds!</t>
+Nutritional Value: Watermelons are rich in vitamins A and C and are great for hydration.</t>
   </si>
   <si>
     <t>Habitat: Pears grow on trees in temperate regions like Europe, North America, and Asia, where the weather is cool.
 Description: Pears are bell-shaped fruits with smooth, juicy flesh that can be green, yellow, or red.
 Fun Fact for Kids: Pears have been grown for over 4,000 years, and there are over 3,000 varieties around the world!
 Taste: Pears are sweet, juicy, and slightly grainy, with a soft texture.
-Nutritional Value: Pears are high in fiber and vitamin C, which are great for digestion and overall health.
-Fun Fact: Pears ripen from the inside out, so they may feel firm on the outside even when they’re perfectly ripe inside.</t>
+Nutritional Value: Pears are high in fiber and vitamin C, which are great for digestion and overall health.</t>
+  </si>
+  <si>
+    <t>Habitat: Papayas grow in tropical and subtropical regions, including parts of Central America, Asia, and Africa.
+Description: Papayas are large, pear-shaped fruits with green skin that turns yellow or orange when ripe. Inside, they have soft orange flesh with black seeds in the center.
+Fun Fact for Kids: Papayas were called the "fruit of the angels" by Christopher Columbus because of their delicious taste!
+Taste: Papayas are sweet and juicy, with a mild tropical flavor.
+Nutritional Value: Papayas are rich in vitamin C, vitamin A, and fiber. They also contain an enzyme called papain, which helps with digestion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitat: Kiwi fruits grow best in temperate climates, and they are often cultivated in New Zealand, Italy, and parts of China. The mild and cooler temperatures in these areas make them ideal for kiwi production.
+Description: Kiwis are small, oval-shaped fruits with a fuzzy brown skin on the outside. When you cut them open, you’ll find vibrant green or golden flesh filled with tiny black seeds.
+Fun Fact for Kids: Kiwis were originally called "Chinese gooseberries" before they were renamed for New Zealand's national bird, the kiwi!
+Taste: Kiwis have a unique combination of sweet and tangy flavors, with a refreshing tropical taste that’s both juicy and delicious.
+Nutritional Value: Kiwis are high in vitamin C, vitamin K, and fiber. They also contain antioxidants, which support immune health and improve skin vitality.
+</t>
+  </si>
+  <si>
+    <t>Habitat: Lemons grow on trees in warm, sunny areas, particularly in places like California, Italy, and Spain. They thrive in climates with lots of sunlight and well-drained soil.
+Description: Lemons are small, bright yellow fruits with a thick, bumpy peel. Inside, they contain juicy sections with a sour, tangy taste that makes them perfect for adding flavor to foods and drinks.
+Fun Fact for Kids: Lemons can float in water because they have tiny air pockets in their thick peels!
+Taste: Lemons are very sour and tangy, which is why people often add sugar or honey to lemon juice. They add a zesty kick to foods and drinks.
+Nutritional Value: Lemons are rich in vitamin C, which is great for boosting the immune system. They’re also high in antioxidants and support healthy digestion.</t>
+  </si>
+  <si>
+    <t>Habitat: Durian trees grow in tropical regions, particularly in Southeast Asia in countries like Malaysia, Thailand, and Indonesia. They prefer hot and humid environments.
+Description: Durians are large fruits with a spiky, hard husk on the outside. Inside, the flesh is soft, creamy, and has a very strong, distinctive smell that some people love and others find overwhelming.
+Fun Fact for Kids: Durian is known as the "king of fruits" in Southeast Asia, but its strong smell is so intense that it’s banned from some hotels and public places!
+Taste: The taste of durian is rich, creamy, and sweet, with a flavor that some people describe as a mix of almonds and custard.
+Nutritional Value: Durian is high in fiber, vitamin C, and healthy fats. It also provides potassium and iron, supporting both energy levels and heart health.</t>
+  </si>
+  <si>
+    <t>Habitat: Coconuts grow in tropical regions near coastlines, especially in Southeast Asia, the Caribbean, and Pacific Islands. They grow on tall palm trees that love sandy soil and lots of sunlight.
+Description: Coconuts are round fruits with a hard, brown shell on the outside and a white, edible interior. They contain refreshing coconut water in the center and have a thick layer of white flesh.
+Fun Fact for Kids: Coconuts can float on water, which allows them to travel across oceans and grow on new beaches!
+Taste: Coconuts have a mild, sweet flavor. The coconut water is refreshing, while the white flesh is creamy and slightly nutty.
+Nutritional Value: Coconuts provide healthy fats, fiber, and potassium. Coconut water is also hydrating and filled with electrolytes, making it a natural sports drink!</t>
+  </si>
+  <si>
+    <t>Habitat: Avocados grow in warm, sunny climates like Mexico, California, and parts of South America. They need well-drained soil and lots of sunshine to thrive.
+Description: Avocados are pear-shaped fruits with a rough, green skin. Inside, they have creamy, soft flesh and a large, round seed at the center. Their rich texture makes them perfect for spreads, salads, and smoothies.
+Fun Fact for Kids: Avocados are sometimes called "alligator pears" because of their bumpy, green skin that looks a bit like an alligator's!
+Taste: Avocados have a creamy, mild flavor with a hint of nuttiness, and they go well in both savory and sweet dishes.
+Nutritional Value: Avocados are rich in healthy fats, especially monounsaturated fats. They also provide potassium, vitamin K, and fiber, all of which are good for heart health and energy.</t>
+  </si>
+  <si>
+    <t>Habitat: Cherries grow on trees in temperate climates, including regions in North America, Europe, and Asia. They prefer areas with cool winters and warm summers.
+Description: Cherries are small, round, red or dark purple fruits. They have a juicy, soft flesh with a small, hard pit in the center.
+Fun Fact for Kids: There are more than 1,000 different types of cherries, but only about 20 varieties are grown for sale!
+Taste: Cherries are sweet, juicy, and slightly tart, making them a popular snack and ingredient in desserts.
+Nutritional Value: Cherries are packed with vitamin C, potassium, and antioxidants, which help reduce inflammation and support heart health.</t>
+  </si>
+  <si>
+    <t>Habitat: Rambutan trees grow in tropical climates, especially in Southeast Asia, including Malaysia, Thailand, and the Philippines.
+Description: Rambutans are small, round fruits with a hairy, red skin. Inside, they have juicy, white flesh with a single seed in the center, similar in texture to lychee.
+Fun Fact for Kids: The name "rambutan" comes from the Malay word for "hair," which makes sense because the skin of this fruit is covered in soft spikes that look like hair!
+Taste: Rambutans are sweet and juicy, with a flavor similar to lychee or grapes.
+Nutritional Value: Rambutans are high in vitamin C, iron, and fiber, which help boost immunity and improve digestion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitat: Dragon fruit grows on cactus plants in tropical and subtropical regions, including Central America, Southeast Asia, and Australia.
+Description: Dragon fruit has a bright pink or yellow skin with green scales, resembling dragon scales. Inside, the flesh is white or red and dotted with tiny black seeds.
+Fun Fact for Kids: Dragon fruit is also known as "pitaya," and its unusual look inspired the name "dragon fruit" because of its resemblance to a dragon’s skin!
+Taste: Dragon fruit is mildly sweet with a flavor that’s a mix between a kiwi and a pear.
+Nutritional Value: Dragon fruit is high in vitamin C, fiber, and magnesium. It’s also packed with antioxidants, which are great for skin and heart health.
+</t>
+  </si>
+  <si>
+    <t>Habitat: Mangosteen trees thrive in tropical climates, particularly in Southeast Asia, including Thailand, Malaysia, and the Philippines.
+Description: Mangosteens are small, round, dark purple fruits with a thick rind. Inside, they have juicy, white flesh that is divided into segments.
+Fun Fact for Kids: Mangosteen is known as the "queen of fruits" in Southeast Asia because of its delicious taste and royal purple color!
+Taste: Mangosteen is sweet, juicy, and slightly tangy, with a taste that’s often described as a mix between peach and pineapple.
+Nutritional Value: Mangosteen is rich in vitamin C, fiber, and antioxidants, which support immunity and reduce inflammation.</t>
   </si>
 </sst>
 </file>
@@ -461,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,84 +573,164 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
